--- a/data/trans_orig/P16A05-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Dificultad-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2012 (tasa de respuesta: 99,75%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
+          <t>Población según si ha consumido medicamentos tranquilizantes en las dos últimas semanas en 2023 (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A05-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P16A05-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>28820</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18919</v>
+        <v>20161</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39159</v>
+        <v>40865</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04933702149991582</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03238748243744793</v>
+        <v>0.03451441572429378</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06703694991525021</v>
+        <v>0.06995805929606726</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>75</v>
@@ -765,19 +765,19 @@
         <v>75961</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>60381</v>
+        <v>61065</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>94333</v>
+        <v>94420</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08235753220369295</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06546548717768891</v>
+        <v>0.06620694765957791</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1022765402483769</v>
+        <v>0.1023711447571096</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>104</v>
@@ -786,19 +786,19 @@
         <v>104781</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>86631</v>
+        <v>86629</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124580</v>
+        <v>124879</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06955369976604438</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05750592496453093</v>
+        <v>0.05750458103556709</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08269664251318989</v>
+        <v>0.08289502498726976</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>555321</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>544982</v>
+        <v>543276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>565222</v>
+        <v>563980</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9506629785000842</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.93296305008475</v>
+        <v>0.9300419407039333</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9676125175625524</v>
+        <v>0.9654855842757066</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>810</v>
@@ -836,19 +836,19 @@
         <v>846372</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>828000</v>
+        <v>827913</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>861952</v>
+        <v>861268</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9176424677963071</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8977234597516232</v>
+        <v>0.8976288552428907</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9345345128223111</v>
+        <v>0.9337930523404222</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1355</v>
@@ -857,19 +857,19 @@
         <v>1401693</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1381894</v>
+        <v>1381595</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1419843</v>
+        <v>1419845</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9304463002339556</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9173033574868099</v>
+        <v>0.9171049750127301</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9424940750354691</v>
+        <v>0.9424954189644329</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>20988</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13897</v>
+        <v>13253</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32536</v>
+        <v>32577</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01947158609901329</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01289265507216198</v>
+        <v>0.01229501199645378</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0301843314634498</v>
+        <v>0.03022259843668774</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -982,19 +982,19 @@
         <v>53644</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40956</v>
+        <v>39855</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70730</v>
+        <v>69421</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05072511670563166</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03872770776764815</v>
+        <v>0.03768623828168759</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06688161578543324</v>
+        <v>0.06564399612427152</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -1003,19 +1003,19 @@
         <v>74632</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>59981</v>
+        <v>59028</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>95649</v>
+        <v>94382</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03494938908975011</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02808855917466471</v>
+        <v>0.02764201126372343</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04479127950916243</v>
+        <v>0.04419792758029748</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1056906</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1045358</v>
+        <v>1045317</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1063997</v>
+        <v>1064641</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9805284139009867</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9698156685365502</v>
+        <v>0.9697774015633123</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.987107344927838</v>
+        <v>0.9877049880035462</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>976</v>
@@ -1053,19 +1053,19 @@
         <v>1003894</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>986808</v>
+        <v>988117</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1016582</v>
+        <v>1017683</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9492748832943684</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9331183842145668</v>
+        <v>0.9343560038757286</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9612722922323518</v>
+        <v>0.9623137617183127</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2011</v>
@@ -1074,19 +1074,19 @@
         <v>2060800</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2039783</v>
+        <v>2041050</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2075451</v>
+        <v>2076404</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9650506109102499</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9552087204908375</v>
+        <v>0.9558020724197025</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9719114408253352</v>
+        <v>0.9723579887362767</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>24457</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16328</v>
+        <v>16556</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35726</v>
+        <v>34976</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02182522687658506</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01457097502376783</v>
+        <v>0.01477464758252196</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0318816216927055</v>
+        <v>0.0312126740172303</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1199,19 +1199,19 @@
         <v>32094</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22349</v>
+        <v>22296</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44327</v>
+        <v>44104</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0322893490533409</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02248518052577654</v>
+        <v>0.02243217900712334</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04459729405863861</v>
+        <v>0.04437247857200773</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1220,19 +1220,19 @@
         <v>56550</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>43368</v>
+        <v>44464</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72577</v>
+        <v>72057</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02674394439021486</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02050963768710043</v>
+        <v>0.02102779680615782</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03432302827185277</v>
+        <v>0.034077385761106</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1096119</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1084850</v>
+        <v>1085600</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1104248</v>
+        <v>1104020</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9781747731234149</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9681183783072944</v>
+        <v>0.9687873259827696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.985429024976232</v>
+        <v>0.9852253524174779</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>950</v>
@@ -1270,19 +1270,19 @@
         <v>961846</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>949613</v>
+        <v>949836</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>971591</v>
+        <v>971644</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9677106509466591</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9554027059413612</v>
+        <v>0.9556275214279922</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9775148194742235</v>
+        <v>0.9775678209928766</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2026</v>
@@ -1291,19 +1291,19 @@
         <v>2057966</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2041939</v>
+        <v>2042459</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2071148</v>
+        <v>2070052</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9732560556097851</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9656769717281473</v>
+        <v>0.9659226142388941</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9794903623128999</v>
+        <v>0.9789722031938421</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>8563</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3727</v>
+        <v>3796</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16231</v>
+        <v>16834</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01914897218692522</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008334960787051149</v>
+        <v>0.008488245156186305</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03629528245256465</v>
+        <v>0.0376425990414954</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1416,19 +1416,19 @@
         <v>14240</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7923</v>
+        <v>8437</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23518</v>
+        <v>22926</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04173900484385326</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02322465882547051</v>
+        <v>0.02473017623882806</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0689345422880351</v>
+        <v>0.06720036426804545</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -1437,19 +1437,19 @@
         <v>22803</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>14414</v>
+        <v>14544</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33728</v>
+        <v>32986</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02892470312823545</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01828332985412088</v>
+        <v>0.01844849537381034</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04278264270478487</v>
+        <v>0.04184114126963268</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>438637</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>430969</v>
+        <v>430366</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>443473</v>
+        <v>443404</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9808510278130748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9637047175474358</v>
+        <v>0.9623574009585046</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9916650392129491</v>
+        <v>0.9915117548438139</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>325</v>
@@ -1487,19 +1487,19 @@
         <v>326918</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>317640</v>
+        <v>318232</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>333235</v>
+        <v>332721</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9582609951561467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9310654577119651</v>
+        <v>0.9327996357319546</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9767753411745296</v>
+        <v>0.975269823761172</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>753</v>
@@ -1508,19 +1508,19 @@
         <v>765555</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>754630</v>
+        <v>755372</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>773944</v>
+        <v>773814</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9710752968717645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9572173572952151</v>
+        <v>0.9581588587303673</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9817166701458788</v>
+        <v>0.9815515046261897</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>82828</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>65951</v>
+        <v>65387</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>103266</v>
+        <v>102542</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02564494974868007</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02041947538444588</v>
+        <v>0.02024497352702812</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03197263276599301</v>
+        <v>0.03174854796768927</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>173</v>
@@ -1633,19 +1633,19 @@
         <v>175938</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>150952</v>
+        <v>151398</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>202422</v>
+        <v>203731</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05307382597541822</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04553654275950635</v>
+        <v>0.04567114973235335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06106296425271168</v>
+        <v>0.06145790774513196</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>256</v>
@@ -1654,19 +1654,19 @@
         <v>258766</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>232350</v>
+        <v>228975</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>292364</v>
+        <v>290030</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03953783388287351</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03550155262700556</v>
+        <v>0.03498591877523542</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04467125811746298</v>
+        <v>0.044314655060765</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3146983</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3126545</v>
+        <v>3127269</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3163860</v>
+        <v>3164424</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.97435505025132</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9680273672340077</v>
+        <v>0.9682514520323109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9795805246155544</v>
+        <v>0.9797550264729719</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3061</v>
@@ -1704,19 +1704,19 @@
         <v>3139031</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3112547</v>
+        <v>3111238</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3164017</v>
+        <v>3163571</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9469261740245818</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9389370357472884</v>
+        <v>0.9385420922548681</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9544634572404936</v>
+        <v>0.9543288502676466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6145</v>
@@ -1725,19 +1725,19 @@
         <v>6286014</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6252416</v>
+        <v>6254750</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6312430</v>
+        <v>6315805</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9604621661171265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9553287418825371</v>
+        <v>0.9556853449392351</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9644984473729945</v>
+        <v>0.9650140812247645</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>38369</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26068</v>
+        <v>26314</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52937</v>
+        <v>53206</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03682927442362805</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02502161763196526</v>
+        <v>0.02525795423065767</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05081306506106223</v>
+        <v>0.0510706223232764</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>109</v>
@@ -2090,19 +2090,19 @@
         <v>119526</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>99825</v>
+        <v>98952</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>141767</v>
+        <v>141718</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1072143769640044</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08954237536473653</v>
+        <v>0.08875981869345428</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1271640992419804</v>
+        <v>0.127119908152821</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>142</v>
@@ -2111,19 +2111,19 @@
         <v>157895</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>134877</v>
+        <v>134717</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>186486</v>
+        <v>186688</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07321347914494743</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06254044358768486</v>
+        <v>0.06246624502348704</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0864705777290788</v>
+        <v>0.08656433538842428</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1003439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>988871</v>
+        <v>988602</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1015740</v>
+        <v>1015494</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.963170725576372</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9491869349389377</v>
+        <v>0.9489293776767235</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9749783823680348</v>
+        <v>0.9747420457693423</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>918</v>
@@ -2161,19 +2161,19 @@
         <v>995308</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>973067</v>
+        <v>973116</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1015009</v>
+        <v>1015882</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8927856230359956</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8728359007580195</v>
+        <v>0.8728800918471787</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9104576246352635</v>
+        <v>0.9112401813065457</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1861</v>
@@ -2182,19 +2182,19 @@
         <v>1998748</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1970157</v>
+        <v>1969955</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2021766</v>
+        <v>2021926</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9267865208550525</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.913529422270921</v>
+        <v>0.9134356646115757</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9374595564123152</v>
+        <v>0.9375337549765129</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>34354</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22731</v>
+        <v>23036</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47944</v>
+        <v>49005</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03525216855723697</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02332522124636239</v>
+        <v>0.02363822428872713</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04919674830321068</v>
+        <v>0.0502858193704407</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -2307,19 +2307,19 @@
         <v>62919</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49269</v>
+        <v>48087</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80440</v>
+        <v>80955</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05760887928653498</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04511074974311743</v>
+        <v>0.04402812848569129</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07365107496191159</v>
+        <v>0.07412248833124412</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -2328,19 +2328,19 @@
         <v>97273</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>78058</v>
+        <v>77801</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>119431</v>
+        <v>120713</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04706685428794503</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03776947182307582</v>
+        <v>0.03764476005300924</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05778793094819929</v>
+        <v>0.05840848585571953</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>940175</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>926585</v>
+        <v>925524</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>951798</v>
+        <v>951493</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.964747831442763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9508032516967893</v>
+        <v>0.9497141806295594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9766747787536375</v>
+        <v>0.9763617757112728</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>960</v>
@@ -2378,19 +2378,19 @@
         <v>1029258</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1011737</v>
+        <v>1011222</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1042908</v>
+        <v>1044090</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.942391120713465</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9263489250380884</v>
+        <v>0.9258775116687559</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9548892502568825</v>
+        <v>0.9559718715143087</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1852</v>
@@ -2399,19 +2399,19 @@
         <v>1969434</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1947276</v>
+        <v>1945994</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1988649</v>
+        <v>1988906</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.952933145712055</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9422120690518007</v>
+        <v>0.9415915141442807</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9622305281769241</v>
+        <v>0.9623552399469909</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>24172</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15279</v>
+        <v>16184</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36775</v>
+        <v>37127</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02733798608836869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01727979056571325</v>
+        <v>0.01830350582192423</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04159250225419537</v>
+        <v>0.04199021627317144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -2524,19 +2524,19 @@
         <v>37726</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26466</v>
+        <v>26430</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50424</v>
+        <v>51408</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.043173064383236</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03028807884602705</v>
+        <v>0.03024584284044289</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05770467412395937</v>
+        <v>0.05883099310196829</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -2545,19 +2545,19 @@
         <v>61898</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46953</v>
+        <v>47236</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>81218</v>
+        <v>80364</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03520886509659226</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02670796808415833</v>
+        <v>0.02686923206688167</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04619865129793271</v>
+        <v>0.04571302725286858</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>860013</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>847410</v>
+        <v>847058</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>868906</v>
+        <v>868001</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9726620139116313</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9584074977458049</v>
+        <v>0.958009783726828</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9827202094342868</v>
+        <v>0.9816964941780757</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>783</v>
@@ -2595,19 +2595,19 @@
         <v>836099</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>823401</v>
+        <v>822417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>847359</v>
+        <v>847395</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.956826935616764</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9422953258760407</v>
+        <v>0.9411690068980317</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9697119211539733</v>
+        <v>0.9697541571595573</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1590</v>
@@ -2616,19 +2616,19 @@
         <v>1696112</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1676792</v>
+        <v>1677646</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1711057</v>
+        <v>1710774</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9647911349034077</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.953801348702067</v>
+        <v>0.9542869727471313</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9732920319158416</v>
+        <v>0.9731307679331183</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>17889</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9328</v>
+        <v>9864</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30314</v>
+        <v>30835</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03556388082261512</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01854384613269864</v>
+        <v>0.01961017500476659</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06026313630774813</v>
+        <v>0.06129935599666907</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>29</v>
@@ -2741,19 +2741,19 @@
         <v>29609</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20042</v>
+        <v>20340</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41576</v>
+        <v>40783</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06567102140219522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04445166600155284</v>
+        <v>0.04511256598519603</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09221262741233203</v>
+        <v>0.09045524876941304</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -2762,19 +2762,19 @@
         <v>47498</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>35224</v>
+        <v>35385</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64305</v>
+        <v>63287</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04979438948679769</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03692709053448122</v>
+        <v>0.03709589041682602</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06741366456075407</v>
+        <v>0.06634563151432485</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>485134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>472709</v>
+        <v>472188</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>493695</v>
+        <v>493159</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9644361191773849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9397368636922518</v>
+        <v>0.938700644003331</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9814561538673013</v>
+        <v>0.9803898249952334</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>381</v>
@@ -2812,19 +2812,19 @@
         <v>421259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>409292</v>
+        <v>410085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>430826</v>
+        <v>430528</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9343289785978048</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9077873725876674</v>
+        <v>0.9095447512305869</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9555483339984469</v>
+        <v>0.9548874340148039</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>829</v>
@@ -2833,19 +2833,19 @@
         <v>906393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>889586</v>
+        <v>890604</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>918667</v>
+        <v>918506</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9502056105132023</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.932586335439246</v>
+        <v>0.9336543684856753</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9630729094655187</v>
+        <v>0.962904109583174</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>114785</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>94221</v>
+        <v>93263</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142250</v>
+        <v>142955</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03372500731607384</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02768328589034324</v>
+        <v>0.02740169566498452</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04179458715158001</v>
+        <v>0.04200186498294813</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>232</v>
@@ -2958,19 +2958,19 @@
         <v>249780</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>219447</v>
+        <v>220417</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>280915</v>
+        <v>281469</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07072506749970209</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06213631620522647</v>
+        <v>0.06241102659175754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07954103693338667</v>
+        <v>0.0796978146755361</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>329</v>
@@ -2979,19 +2979,19 @@
         <v>364565</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>328742</v>
+        <v>329604</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>405566</v>
+        <v>405385</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05256690575103888</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04740165628318486</v>
+        <v>0.04752594461934006</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0584788963818773</v>
+        <v>0.0584527737387138</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3288761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3261296</v>
+        <v>3260591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3309325</v>
+        <v>3310283</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9662749926839261</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.95820541284842</v>
+        <v>0.9579981350170526</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9723167141096568</v>
+        <v>0.9725983043350155</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3042</v>
@@ -3029,19 +3029,19 @@
         <v>3281924</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3250789</v>
+        <v>3250235</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3312257</v>
+        <v>3311287</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9292749325002979</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9204589630666133</v>
+        <v>0.9203021853244638</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9378636837947735</v>
+        <v>0.9375889734082425</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6132</v>
@@ -3050,19 +3050,19 @@
         <v>6570685</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6529684</v>
+        <v>6529865</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6606508</v>
+        <v>6605646</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9474330942489612</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9415211036181226</v>
+        <v>0.9415472262612857</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9525983437168147</v>
+        <v>0.9524740553806599</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>51123</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39100</v>
+        <v>38624</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67289</v>
+        <v>67179</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04532163648505044</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03466286923357679</v>
+        <v>0.03424162458924555</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05965334759326362</v>
+        <v>0.05955632096879483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>142</v>
@@ -3415,19 +3415,19 @@
         <v>156637</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>136442</v>
+        <v>134437</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>183471</v>
+        <v>183011</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1243583974425807</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1083252333349577</v>
+        <v>0.106733319718883</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.145662859294388</v>
+        <v>0.145297548780763</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>190</v>
@@ -3436,19 +3436,19 @@
         <v>207760</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>179186</v>
+        <v>179829</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>237559</v>
+        <v>238678</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08701763024959618</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07504983553927798</v>
+        <v>0.07531909877813145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09949861301012619</v>
+        <v>0.0999673609063907</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1076874</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1060708</v>
+        <v>1060818</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1088897</v>
+        <v>1089373</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9546783635149495</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9403466524067364</v>
+        <v>0.9404436790312051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9653371307664231</v>
+        <v>0.9657583754107544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1046</v>
@@ -3486,19 +3486,19 @@
         <v>1102924</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1076090</v>
+        <v>1076550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1123119</v>
+        <v>1125124</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8756416025574193</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8543371407056123</v>
+        <v>0.8547024512192369</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8916747666650425</v>
+        <v>0.8932666802811168</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2064</v>
@@ -3507,19 +3507,19 @@
         <v>2179798</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2149999</v>
+        <v>2148880</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2208372</v>
+        <v>2207729</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9129823697504038</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9005013869898736</v>
+        <v>0.9000326390936093</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9249501644607218</v>
+        <v>0.9246809012218685</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>33389</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23455</v>
+        <v>23556</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45405</v>
+        <v>46682</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03673890913042065</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02580843931568539</v>
+        <v>0.02591969985440782</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04996053371863188</v>
+        <v>0.0513647050225079</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>54</v>
@@ -3632,19 +3632,19 @@
         <v>58185</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>43558</v>
+        <v>41883</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74948</v>
+        <v>74584</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05781058625648788</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04327824098417171</v>
+        <v>0.04161373318884478</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07446582450389967</v>
+        <v>0.07410420324204796</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>87</v>
@@ -3653,19 +3653,19 @@
         <v>91574</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73624</v>
+        <v>70879</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111338</v>
+        <v>110988</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04781191161038603</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03844000305936366</v>
+        <v>0.03700682223926598</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.058130919518877</v>
+        <v>0.05794796046496177</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>875436</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>863420</v>
+        <v>862143</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>885370</v>
+        <v>885269</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9632610908695793</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9500394662813679</v>
+        <v>0.9486352949774921</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9741915606843146</v>
+        <v>0.974080300145592</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>897</v>
@@ -3703,19 +3703,19 @@
         <v>948290</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>931527</v>
+        <v>931891</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>962917</v>
+        <v>964592</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9421894137435121</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9255341754961003</v>
+        <v>0.925895796757952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9567217590158281</v>
+        <v>0.9583862668111544</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1745</v>
@@ -3724,19 +3724,19 @@
         <v>1823726</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1803962</v>
+        <v>1804312</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1841676</v>
+        <v>1844421</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.952188088389614</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9418690804811229</v>
+        <v>0.9420520395350394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9615599969406363</v>
+        <v>0.9629931777607347</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>21639</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13669</v>
+        <v>14141</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33138</v>
+        <v>33479</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02626845187030233</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01659397471905119</v>
+        <v>0.01716670014682834</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04022754343225505</v>
+        <v>0.04064125099955475</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -3849,19 +3849,19 @@
         <v>36478</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24966</v>
+        <v>25596</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48666</v>
+        <v>50629</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04730937960025555</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03237920731955569</v>
+        <v>0.03319540219130565</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06311622097752984</v>
+        <v>0.06566144091282579</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>53</v>
@@ -3870,19 +3870,19 @@
         <v>58117</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44225</v>
+        <v>44535</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74472</v>
+        <v>74969</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03644126808691684</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02773038173903468</v>
+        <v>0.02792461444098386</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04669592544213263</v>
+        <v>0.0470077992074864</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>802120</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>790621</v>
+        <v>790280</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>810090</v>
+        <v>809618</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9737315481296976</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.959772456567745</v>
+        <v>0.9593587490004454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9834060252809488</v>
+        <v>0.9828332998531717</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>696</v>
@@ -3920,19 +3920,19 @@
         <v>734581</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>722393</v>
+        <v>720430</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>746093</v>
+        <v>745463</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9526906203997444</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9368837790224704</v>
+        <v>0.9343385590871747</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9676207926804443</v>
+        <v>0.9668045978086944</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1462</v>
@@ -3941,19 +3941,19 @@
         <v>1536701</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1520346</v>
+        <v>1519849</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1550593</v>
+        <v>1550283</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9635587319130832</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.953304074557867</v>
+        <v>0.9529922007925136</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9722696182609653</v>
+        <v>0.9720753855590161</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>10192</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4858</v>
+        <v>5128</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19043</v>
+        <v>19178</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0201152446527703</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009587821483359434</v>
+        <v>0.01011950819787375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03758265526642154</v>
+        <v>0.03784859790624055</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -4066,19 +4066,19 @@
         <v>18226</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11151</v>
+        <v>11380</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28711</v>
+        <v>28904</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03721885022879394</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0227712437136772</v>
+        <v>0.02323978347503888</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05863061566652936</v>
+        <v>0.05902496489988284</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>26</v>
@@ -4087,19 +4087,19 @@
         <v>28418</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18678</v>
+        <v>20013</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>40978</v>
+        <v>41125</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02852111255864987</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01874589301559342</v>
+        <v>0.02008521679114734</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04112576804355386</v>
+        <v>0.04127368618652329</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>496509</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>487658</v>
+        <v>487523</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>501843</v>
+        <v>501573</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9798847553472297</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9624173447335784</v>
+        <v>0.9621514020937592</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9904121785166404</v>
+        <v>0.9898804918021262</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>438</v>
@@ -4137,19 +4137,19 @@
         <v>471472</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>460987</v>
+        <v>460794</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>478547</v>
+        <v>478318</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9627811497712061</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9413693843334702</v>
+        <v>0.9409750351001166</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9772287562863223</v>
+        <v>0.9767602165249605</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>900</v>
@@ -4158,19 +4158,19 @@
         <v>967980</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>955420</v>
+        <v>955273</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>977720</v>
+        <v>976385</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9714788874413501</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9588742319564459</v>
+        <v>0.9587263138134767</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9812541069844065</v>
+        <v>0.9799147832088526</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>116343</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96898</v>
+        <v>94304</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140765</v>
+        <v>138375</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03455107043314616</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02877625582305393</v>
+        <v>0.02800611560867519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04180386603041557</v>
+        <v>0.04109403777398481</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>245</v>
@@ -4283,19 +4283,19 @@
         <v>269526</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>238605</v>
+        <v>238827</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>304130</v>
+        <v>304926</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07642246739166657</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06765496231150807</v>
+        <v>0.06771785381734344</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08623409777239235</v>
+        <v>0.08645993323737634</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>356</v>
@@ -4304,19 +4304,19 @@
         <v>385869</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>346716</v>
+        <v>345344</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>430872</v>
+        <v>424541</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05597116393994333</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05029194442760595</v>
+        <v>0.05009290675799511</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0624988815392444</v>
+        <v>0.06158063026806227</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3250939</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3226517</v>
+        <v>3228907</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3270384</v>
+        <v>3272978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9654489295668538</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9581961339695845</v>
+        <v>0.9589059622260152</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.971223744176946</v>
+        <v>0.9719938843913248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3077</v>
@@ -4354,19 +4354,19 @@
         <v>3257266</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3222662</v>
+        <v>3221866</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3288187</v>
+        <v>3287965</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9235775326083334</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9137659022276076</v>
+        <v>0.9135400667626237</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9323450376884912</v>
+        <v>0.9322821461826566</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6171</v>
@@ -4375,19 +4375,19 @@
         <v>6508206</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6463203</v>
+        <v>6469534</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6547359</v>
+        <v>6548731</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9440288360600567</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9375011184607557</v>
+        <v>0.9384193697319384</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.949708055572394</v>
+        <v>0.949907093242005</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>56799</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43160</v>
+        <v>43628</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71984</v>
+        <v>72139</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1138854061457238</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.086537274893262</v>
+        <v>0.08747570903961467</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1443314117577484</v>
+        <v>0.1446426067419464</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>145</v>
@@ -4740,19 +4740,19 @@
         <v>92097</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78978</v>
+        <v>77652</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>106944</v>
+        <v>106549</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1476906942058715</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1266528816871648</v>
+        <v>0.1245257476873844</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1714999330619346</v>
+        <v>0.1708660664230757</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>204</v>
@@ -4761,19 +4761,19 @@
         <v>148896</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>129607</v>
+        <v>128144</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170633</v>
+        <v>170598</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1326682113741471</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1154811803479476</v>
+        <v>0.1141776226373212</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1520363436327104</v>
+        <v>0.1520046428189439</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>441940</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>426755</v>
+        <v>426600</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>455579</v>
+        <v>455111</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8861145938542762</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8556685882422516</v>
+        <v>0.8553573932580535</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.913462725106738</v>
+        <v>0.9125242909603853</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>716</v>
@@ -4811,19 +4811,19 @@
         <v>531483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>516636</v>
+        <v>517031</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>544602</v>
+        <v>545928</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8523093057941286</v>
+        <v>0.8523093057941283</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8285000669380652</v>
+        <v>0.829133933576924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8733471183128351</v>
+        <v>0.8754742523126156</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1112</v>
@@ -4832,19 +4832,19 @@
         <v>973424</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>951687</v>
+        <v>951722</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>992713</v>
+        <v>994176</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8673317886258529</v>
+        <v>0.8673317886258528</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8479636563672895</v>
+        <v>0.8479953571810562</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8845188196520521</v>
+        <v>0.8858223773626787</v>
       </c>
     </row>
     <row r="6">
@@ -4939,16 +4939,16 @@
         <v>29471</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54749</v>
+        <v>54002</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04224645873447554</v>
+        <v>0.04224645873447553</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03071050742166152</v>
+        <v>0.03071075332122264</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05705131777717336</v>
+        <v>0.05627285019456925</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>182</v>
@@ -4957,19 +4957,19 @@
         <v>108421</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93735</v>
+        <v>93170</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125050</v>
+        <v>125182</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09721730203160217</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08404827772481362</v>
+        <v>0.08354195670443884</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1121274658709235</v>
+        <v>0.1122458816096339</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>229</v>
@@ -4978,19 +4978,19 @@
         <v>148963</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130084</v>
+        <v>127929</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>170450</v>
+        <v>169830</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07179312728542339</v>
+        <v>0.07179312728542338</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06269435311209128</v>
+        <v>0.06165577125700404</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0821488014644656</v>
+        <v>0.08185043272069246</v>
       </c>
     </row>
     <row r="8">
@@ -5007,7 +5007,7 @@
         <v>919101</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>904893</v>
+        <v>905640</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>930171</v>
@@ -5016,10 +5016,10 @@
         <v>0.9577535412655245</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9429486822228266</v>
+        <v>0.9437271498054307</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9692894925783384</v>
+        <v>0.9692892466787774</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1424</v>
@@ -5028,19 +5028,19 @@
         <v>1006825</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>990196</v>
+        <v>990064</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1021511</v>
+        <v>1022076</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9027826979683981</v>
+        <v>0.9027826979683979</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8878725341290767</v>
+        <v>0.8877541183903661</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9159517222751864</v>
+        <v>0.9164580432955611</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2286</v>
@@ -5049,19 +5049,19 @@
         <v>1925925</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1904438</v>
+        <v>1905058</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1944804</v>
+        <v>1946959</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9282068727145767</v>
+        <v>0.9282068727145766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9178511985355338</v>
+        <v>0.9181495672793076</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9373056468879079</v>
+        <v>0.9383442287429961</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>25021</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17581</v>
+        <v>17412</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36775</v>
+        <v>35378</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02390961134290741</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01679989399515621</v>
+        <v>0.01663882905533419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03514165818456155</v>
+        <v>0.03380711691750285</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>105</v>
@@ -5174,19 +5174,19 @@
         <v>65390</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54357</v>
+        <v>52572</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79893</v>
+        <v>80697</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06243662243674233</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05190122489082065</v>
+        <v>0.05019757203603044</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07628369145718425</v>
+        <v>0.07705163349781077</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>135</v>
@@ -5195,19 +5195,19 @@
         <v>90411</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>75592</v>
+        <v>73767</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>108132</v>
+        <v>107558</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0431807636104833</v>
+        <v>0.04318076361048331</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.036103088948647</v>
+        <v>0.03523109409468739</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05164397339382504</v>
+        <v>0.05136981980693257</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1021458</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1009704</v>
+        <v>1011101</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1028898</v>
+        <v>1029067</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9760903886570925</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9648583418154385</v>
+        <v>0.9661928830824973</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.983200106004844</v>
+        <v>0.9833611709446657</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1410</v>
@@ -5245,19 +5245,19 @@
         <v>981920</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>967417</v>
+        <v>966613</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>992953</v>
+        <v>994738</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9375633775632576</v>
+        <v>0.9375633775632577</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9237163085428155</v>
+        <v>0.922948366502189</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9480987751091792</v>
+        <v>0.9498024279639691</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2409</v>
@@ -5266,19 +5266,19 @@
         <v>2003379</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1985658</v>
+        <v>1986232</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2018198</v>
+        <v>2020023</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9568192363895167</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9483560266061751</v>
+        <v>0.9486301801930673</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9638969110513531</v>
+        <v>0.9647689059053121</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>24872</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16761</v>
+        <v>16352</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35386</v>
+        <v>35775</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02548560822693084</v>
+        <v>0.02548560822693085</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01717392204765816</v>
+        <v>0.0167554893129324</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03625908021906424</v>
+        <v>0.03665740943741153</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>75</v>
@@ -5391,19 +5391,19 @@
         <v>46070</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36588</v>
+        <v>36817</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>57742</v>
+        <v>57541</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05074014202763842</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04029718794854995</v>
+        <v>0.04054891901562718</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06359452094956755</v>
+        <v>0.06337367154493466</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -5412,19 +5412,19 @@
         <v>70942</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57966</v>
+        <v>58232</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>86679</v>
+        <v>85549</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0376573223723479</v>
+        <v>0.03765732237234788</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03076914639114127</v>
+        <v>0.03091040495444535</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04601041571562077</v>
+        <v>0.04541101417997064</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>951057</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>940543</v>
+        <v>940154</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>959168</v>
+        <v>959577</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9745143917730692</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9637409197809358</v>
+        <v>0.9633425905625883</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.982826077952342</v>
+        <v>0.9832445106870675</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1245</v>
@@ -5462,19 +5462,19 @@
         <v>861894</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>850222</v>
+        <v>850423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>871376</v>
+        <v>871147</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9492598579723618</v>
+        <v>0.9492598579723617</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9364054790504323</v>
+        <v>0.9366263284550653</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9597028120514501</v>
+        <v>0.959451080984373</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2163</v>
@@ -5483,19 +5483,19 @@
         <v>1812951</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1797214</v>
+        <v>1798344</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1825927</v>
+        <v>1825661</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9623426776276522</v>
+        <v>0.962342677627652</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9539895842843791</v>
+        <v>0.9545889858200293</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9692308536088585</v>
+        <v>0.9690895950455545</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>147234</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>126959</v>
+        <v>124515</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>173649</v>
+        <v>173716</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0422989266565557</v>
+        <v>0.04229892665655571</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0364741295748503</v>
+        <v>0.03577214417271289</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04988794287424155</v>
+        <v>0.04990695026220732</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>507</v>
@@ -5608,19 +5608,19 @@
         <v>311979</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>285942</v>
+        <v>284969</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342168</v>
+        <v>342653</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.08445329077608645</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07740512527247215</v>
+        <v>0.07714156565435036</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09262551865146169</v>
+        <v>0.09275671238023478</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>672</v>
@@ -5629,19 +5629,19 @@
         <v>459213</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>423645</v>
+        <v>423119</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>498555</v>
+        <v>498728</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06400273942687325</v>
+        <v>0.06400273942687323</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05904556403175733</v>
+        <v>0.05897214264446236</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06948604777424666</v>
+        <v>0.06951021915882954</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3333555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3307140</v>
+        <v>3307073</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3353830</v>
+        <v>3356274</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9577010733434443</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9501120571257584</v>
+        <v>0.9500930497377934</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9635258704251498</v>
+        <v>0.9642278558272874</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4795</v>
@@ -5679,19 +5679,19 @@
         <v>3382122</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3351933</v>
+        <v>3351448</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3408159</v>
+        <v>3409132</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9155467092239136</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9073744813485384</v>
+        <v>0.907243287619765</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9225948747275275</v>
+        <v>0.9228584343456496</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7970</v>
@@ -5700,19 +5700,19 @@
         <v>6715677</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6676335</v>
+        <v>6676162</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6751245</v>
+        <v>6751771</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9359972605731267</v>
+        <v>0.9359972605731266</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9305139522257535</v>
+        <v>0.9304897808411706</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9409544359682427</v>
+        <v>0.9410278573555377</v>
       </c>
     </row>
     <row r="18">
